--- a/dashboard/public/sample.xlsx
+++ b/dashboard/public/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB3033-7CA8-4C98-A0DC-C9DB9619A003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF68A87F-AD3D-4F12-93E3-CE888740312E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{CBA7B65C-2BB9-410D-8ED0-3BE8AD310C9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBA7B65C-2BB9-410D-8ED0-3BE8AD310C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,51 +32,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
-    <t>배출원 구분</t>
+    <t>Year</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>온실가스 배출량(tCO2eq)</t>
+    <t>Scope 1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>에너지사용량(TJ)</t>
+    <t>Scope 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>직접배출(Scope 1)</t>
+    <t>Fixed Combustion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고정연소</t>
+    <t>Mobile Combustion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이동연소</t>
+    <t>Process Emissions</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>공정배출</t>
+    <t>Electricity</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>소계</t>
+    <t>Steam</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>간접배출(Scope 2)</t>
+    <t>Subtotal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전력</t>
+    <t>Scope 3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스팀</t>
+    <t>greenhouse gas emissions (tCO2eq)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>총 배출량</t>
+    <t>Total</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +122,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -162,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,14 +193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="44">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -296,9 +278,82 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -311,7 +366,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -326,7 +381,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,7 +394,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -351,110 +406,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -681,7 +632,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -695,59 +648,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -764,184 +665,161 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1278,88 +1156,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD56D5C0-97C8-4EFE-8CDB-00CE9E5B6D91}">
-  <dimension ref="E3:P11"/>
+  <dimension ref="E3:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="31" t="s">
+    <row r="3" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="25" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="39" t="s">
+    <row r="6" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="21" t="s">
+      <c r="H6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="21"/>
     </row>
-    <row r="6" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="5:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="49">
+    <row r="7" spans="5:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="36">
         <v>2019</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -1383,178 +1265,168 @@
         <f>SUM(K7,L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="41">
         <f>J7+M7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E8" s="49">
+    <row r="8" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E8" s="36">
         <v>2020</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="F8" s="37"/>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <f>SUM(G8:I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <f>SUM(K8,L8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="42">
         <f>J8+M8</f>
         <v>0</v>
       </c>
-      <c r="O8" s="35">
-        <v>0</v>
-      </c>
-      <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E9" s="49">
+    <row r="9" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E9" s="36">
         <v>2021</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="F9" s="37"/>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <f>SUM(G9:I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
         <f>SUM(K9,L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="42">
         <f>J9+M9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="35">
-        <v>0</v>
-      </c>
-      <c r="P9" s="36"/>
     </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E10" s="49">
+    <row r="10" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E10" s="36">
         <v>2022</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="F10" s="37"/>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <f>SUM(G10:I10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
         <f>SUM(K10,L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="42">
         <f>J10+M10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="35">
-        <v>0</v>
-      </c>
-      <c r="P10" s="36"/>
     </row>
-    <row r="11" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E11" s="29">
+    <row r="11" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="22">
         <v>2023</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="F11" s="23"/>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
         <f>SUM(G11:I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
         <f>SUM(K11,L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="43">
         <f>J11+M11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="37">
-        <v>0</v>
-      </c>
-      <c r="P11" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="13">
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O4:P6"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="E4:F6"/>
@@ -1569,5 +1441,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dashboard/public/sample.xlsx
+++ b/dashboard/public/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Dashboard\dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF68A87F-AD3D-4F12-93E3-CE888740312E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D85DE-96AB-48FF-BE78-2AF40FB845CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBA7B65C-2BB9-410D-8ED0-3BE8AD310C9E}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{CBA7B65C-2BB9-410D-8ED0-3BE8AD310C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +193,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -665,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +738,26 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,9 +770,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,38 +817,29 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="4" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,7 +1179,7 @@
   <dimension ref="E3:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1173,38 +1193,38 @@
   <sheetData>
     <row r="3" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="44"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="18" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="20" t="s">
@@ -1215,9 +1235,9 @@
       </c>
     </row>
     <row r="6" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="38" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -1226,22 +1246,22 @@
       <c r="I6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="21"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="5:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="36">
+      <c r="E7" s="18">
         <v>2019</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -1265,19 +1285,19 @@
         <f>SUM(K7,L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="39">
-        <v>0</v>
-      </c>
-      <c r="O7" s="41">
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="44">
         <f>J7+M7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E8" s="36">
+      <c r="E8" s="18">
         <v>2020</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="5">
         <v>0</v>
       </c>
@@ -1301,19 +1321,19 @@
         <f>SUM(K8,L8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="42">
+      <c r="N8" s="42">
+        <v>0</v>
+      </c>
+      <c r="O8" s="45">
         <f>J8+M8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E9" s="36">
+      <c r="E9" s="18">
         <v>2021</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5">
         <v>0</v>
       </c>
@@ -1337,19 +1357,19 @@
         <f>SUM(K9,L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="42">
+      <c r="N9" s="42">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
         <f>J9+M9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="36">
+      <c r="E10" s="18">
         <v>2022</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
@@ -1373,19 +1393,19 @@
         <f>SUM(K10,L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="42">
+      <c r="N10" s="42">
+        <v>0</v>
+      </c>
+      <c r="O10" s="45">
         <f>J10+M10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="22">
+      <c r="E11" s="27">
         <v>2023</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="9">
         <v>0</v>
       </c>
@@ -1409,21 +1429,16 @@
         <f>SUM(K11,L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="43">
+      <c r="N11" s="43">
+        <v>0</v>
+      </c>
+      <c r="O11" s="46">
         <f>J11+M11</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:M6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G4:N4"/>
@@ -1432,6 +1447,11 @@
     <mergeCell ref="E4:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
